--- a/doc/画面案.xlsx
+++ b/doc/画面案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="-10960" windowWidth="27220" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="37700" yWindow="180" windowWidth="23940" windowHeight="15000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="作業者登録" sheetId="3" r:id="rId1"/>
@@ -1204,146 +1204,146 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="473">
@@ -2934,8 +2934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2963,19 +2963,19 @@
       <c r="M1" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="25">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="J3" s="30" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="J3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13">
       <c r="J4" s="1" t="s">
@@ -2992,13 +2992,13 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="25">
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3027,13 +3027,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="25">
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3076,10 +3076,10 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3111,7 +3111,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD23"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3142,30 +3142,30 @@
       <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:17" ht="25">
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="3" spans="1:17" ht="25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="31" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="M3" s="38" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="M3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
       <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3174,11 +3174,11 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="40"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
       <c r="P4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3187,25 +3187,25 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-      <c r="M5" s="38" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="40"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
       <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3214,11 +3214,11 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="40"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="32"/>
       <c r="P6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3227,23 +3227,23 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="25">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="41" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="M7" s="38" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="M7" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="40"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
       <c r="P7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3252,11 +3252,11 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="M8" s="38" t="s">
+      <c r="M8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="39"/>
-      <c r="O8" s="40"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="32"/>
       <c r="P8" s="1" t="s">
         <v>15</v>
       </c>
@@ -3265,87 +3265,87 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="25">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="M9" s="14" t="s">
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="M9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="15"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="11" spans="1:17" ht="23">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="13" spans="1:17" ht="23">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="50" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
       <c r="N13" s="8"/>
     </row>
     <row r="15" spans="1:17" ht="23">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="8"/>
     </row>
     <row r="17" spans="2:16" ht="23">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="47"/>
-      <c r="H17" s="44" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="19"/>
+      <c r="H17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46" t="s">
+      <c r="I17" s="17"/>
+      <c r="J17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="47"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="2:16" ht="23">
       <c r="B18" s="3"/>
@@ -3362,24 +3362,24 @@
     <row r="19" spans="2:16" ht="23">
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="49"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="49"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="4"/>
       <c r="K19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="48" t="s">
+      <c r="L19" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="M19" s="49"/>
+      <c r="M19" s="21"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="2:16" ht="23">
@@ -3398,27 +3398,45 @@
     <row r="21" spans="2:16" ht="23">
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="49"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="4"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="48" t="s">
+      <c r="L21" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="49"/>
+      <c r="M21" s="21"/>
       <c r="N21" s="8"/>
       <c r="P21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="L21:M21"/>
@@ -3435,24 +3453,6 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3470,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3499,104 +3499,110 @@
     </row>
     <row r="2" spans="1:18" ht="19" thickBot="1"/>
     <row r="3" spans="1:18" ht="29" thickBot="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="28">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
     </row>
     <row r="6" spans="1:18" ht="25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="K6" s="32" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="K6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="19"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="49"/>
     </row>
     <row r="7" spans="1:18" ht="19" thickBot="1"/>
     <row r="8" spans="1:18" ht="29" thickBot="1">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="25">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="21"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:P4"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="B6:C6"/>
@@ -3605,12 +3611,6 @@
     <mergeCell ref="M6:R6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:I8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:P4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
